--- a/ExcelReporter.Tests/TestData/DataSourcePanelDictionaryRenderTest/TestRenderDictionaryEnumerable.xlsx
+++ b/ExcelReporter.Tests/TestData/DataSourcePanelDictionaryRenderTest/TestRenderDictionaryEnumerable.xlsx
@@ -373,13 +373,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D4"/>
+  <x:dimension ref="A1:F5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="2" spans="1:4">
+    <x:row r="2" spans="1:6">
       <x:c r="B2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -389,8 +389,11 @@
       <x:c r="D2" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="F2" s="0" t="n">
+        <x:v>25.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:4">
+    <x:row r="3" spans="1:6">
       <x:c r="B3" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -400,8 +403,11 @@
       <x:c r="D3" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="F3" s="0" t="n">
+        <x:v>250.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:4">
+    <x:row r="4" spans="1:6">
       <x:c r="B4" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
@@ -410,6 +416,9 @@
       </x:c>
       <x:c r="D4" s="0" t="b">
         <x:v>1</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="n">
+        <x:v>2500.7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
